--- a/rasp.xlsx
+++ b/rasp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Observer\Desktop\TelegramBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Observer\Desktop\uksap_bot\UKSAPBOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE9558-5121-4601-9E78-9A672CCA72CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D90C6-C333-4258-AE47-CF9089448A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="167">
   <si>
     <t>А-123/9</t>
   </si>
@@ -579,13 +579,55 @@
   </si>
   <si>
     <t>17:45 - 18:30 18:35 - 19:20</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Столбец3</t>
+  </si>
+  <si>
+    <t>Столбец4</t>
+  </si>
+  <si>
+    <t>Столбец5</t>
+  </si>
+  <si>
+    <t>Столбец6</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Столбец7</t>
+  </si>
+  <si>
+    <t>Столбец8</t>
+  </si>
+  <si>
+    <t>***1 ПАРА***</t>
+  </si>
+  <si>
+    <t>***ВРЕМЯ ПАРЫ***</t>
+  </si>
+  <si>
+    <t>***КАБИНЕТ***</t>
+  </si>
+  <si>
+    <t>***2 ПАРА***</t>
+  </si>
+  <si>
+    <t>***3 ПАРА***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +722,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -723,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -771,12 +822,168 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -810,19 +1017,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -880,16 +1074,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{697AA794-BF4B-42A7-A689-709E7418AEEA}" name="Таблица17" displayName="Таблица17" ref="A1:S81" totalsRowShown="0">
-  <autoFilter ref="A1:S81" xr:uid="{A1FA9217-B6EF-404F-8272-A96D67ED4E59}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{697AA794-BF4B-42A7-A689-709E7418AEEA}" name="Таблица17" displayName="Таблица17" ref="A1:AA81" totalsRowShown="0">
+  <autoFilter ref="A1:AA81" xr:uid="{A1FA9217-B6EF-404F-8272-A96D67ED4E59}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{387B3FE6-1564-48A5-8400-8C0B25316E44}" name="ГРУППА" dataCellStyle="Заголовок 1"/>
-    <tableColumn id="2" xr3:uid="{BC113A68-12D2-4E2B-9AD5-973AAA922A47}" name="1. НАЗВАНИЕ ПАРЫ, ПРЕПОД_x000a_" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8998322D-B49C-40B3-BD20-D04754522ECC}" name="КАБИНЕТ" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E17292D2-51DD-43AA-AC41-06E315FB4440}" name="ВРЕМЯ ПАРЫ" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{FD8F3E91-875C-4788-9B7C-F69B5A23FDA0}" name="Столбец1" dataCellStyle="Заголовок 1"/>
+    <tableColumn id="2" xr3:uid="{BC113A68-12D2-4E2B-9AD5-973AAA922A47}" name="1. НАЗВАНИЕ ПАРЫ, ПРЕПОД_x000a_" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{4A6AA3CC-9979-456A-9A18-2DD167502428}" name="Столбец4" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8998322D-B49C-40B3-BD20-D04754522ECC}" name="КАБИНЕТ" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{84865FA4-D527-4D3C-9C7B-5C925552335C}" name="Столбец3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E17292D2-51DD-43AA-AC41-06E315FB4440}" name="ВРЕМЯ ПАРЫ" dataDxfId="10"/>
+    <tableColumn id="27" xr3:uid="{0D2AACF3-48CD-40C4-8035-DFDD784566EB}" name="Столбец7" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{CA917A1C-7ACE-4759-BB75-1F04A396EBCF}" name="Столбец6" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{9BCF0A4E-F75B-481B-8F09-20B4CD2D4B20}" name="2. НАЗВАНИЕ ПАРЫ, ПРЕПОД_x000a_" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{37920E53-E2EE-4F76-9BD0-ABEE564EA326}" name="2.КАБИНЕТ" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{E7EEB334-3357-4CFE-AA93-D617FCB32837}" name="2. ВРЕМЯ ПАРЫ" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{3CF8D3D6-F0B2-4224-A1D4-03C56C719053}" name="Столбец8" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{37920E53-E2EE-4F76-9BD0-ABEE564EA326}" name="2.КАБИНЕТ" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{E7EEB334-3357-4CFE-AA93-D617FCB32837}" name="2. ВРЕМЯ ПАРЫ" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{C1DAE0ED-7508-4B84-AD1E-E74D3E69B495}" name="Столбец5" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{AE75F81E-A52E-48AA-9AF0-3CC9EFF7616A}" name="Столбец2" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{02BABA02-3782-4CD5-8566-82CC40BFD8B9}" name="3. НАЗВАНИЕ ПАРЫ, ПРЕПОД_x000a_"/>
     <tableColumn id="9" xr3:uid="{221CF0C8-B7CB-46C0-95E8-B8B84767B6B3}" name="3.КАБИНЕТ"/>
     <tableColumn id="10" xr3:uid="{1DCEBB30-A690-4047-B3D2-07BA8DB9D4A1}" name="3. ВРЕМЯ ПАРЫ"/>
@@ -1266,2745 +1468,4806 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F3E2F1-8A2F-4F0C-A6A7-3C6423CAD4D7}">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="36.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="89.33203125" customWidth="1"/>
-    <col min="9" max="9" width="28.77734375" customWidth="1"/>
-    <col min="10" max="10" width="44.5546875" customWidth="1"/>
-    <col min="11" max="11" width="85.5546875" customWidth="1"/>
-    <col min="12" max="12" width="40.33203125" customWidth="1"/>
-    <col min="13" max="13" width="41.44140625" customWidth="1"/>
-    <col min="14" max="14" width="52" customWidth="1"/>
-    <col min="15" max="15" width="30.88671875" customWidth="1"/>
-    <col min="16" max="16" width="33.88671875" customWidth="1"/>
-    <col min="17" max="17" width="45.21875" customWidth="1"/>
-    <col min="18" max="18" width="38.109375" customWidth="1"/>
-    <col min="19" max="19" width="31.77734375" customWidth="1"/>
+    <col min="1" max="2" width="36" style="2" customWidth="1"/>
+    <col min="3" max="4" width="58.44140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="20" customWidth="1"/>
+    <col min="6" max="8" width="44.5546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="70.33203125" style="19" customWidth="1"/>
+    <col min="10" max="11" width="79.109375" style="11" customWidth="1"/>
+    <col min="12" max="13" width="36.88671875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="48.21875" style="21" customWidth="1"/>
+    <col min="15" max="15" width="89.33203125" customWidth="1"/>
+    <col min="16" max="16" width="85.88671875" customWidth="1"/>
+    <col min="17" max="17" width="44.5546875" customWidth="1"/>
+    <col min="18" max="18" width="85.5546875" customWidth="1"/>
+    <col min="19" max="19" width="40.33203125" customWidth="1"/>
+    <col min="20" max="20" width="41.44140625" customWidth="1"/>
+    <col min="21" max="21" width="52" customWidth="1"/>
+    <col min="22" max="22" width="30.88671875" customWidth="1"/>
+    <col min="23" max="23" width="33.88671875" customWidth="1"/>
+    <col min="24" max="24" width="45.21875" customWidth="1"/>
+    <col min="25" max="25" width="38.109375" customWidth="1"/>
+    <col min="26" max="26" width="31.77734375" customWidth="1"/>
+    <col min="27" max="27" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="K2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="N2" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="U2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="X2" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" s="22" t="s">
+      <c r="Y2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>101</v>
+      <c r="K3" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="22" t="s">
+      <c r="V3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S3" s="22" t="s">
+      <c r="Y3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA3" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="11">
+      <c r="K4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="M4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="N4" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="11">
+      <c r="Q4" s="11">
         <v>410</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="R4" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="11">
+      <c r="T4" s="11">
         <v>410</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="U4" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="22" t="s">
+      <c r="V4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" s="22" t="s">
+      <c r="Y4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA4" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="11">
         <v>410</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="11">
-        <v>102</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="11">
-        <v>102</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>104</v>
+      <c r="K5" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L5" s="11">
         <v>102</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>102</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="11">
+        <v>102</v>
+      </c>
+      <c r="U5" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P5" s="22" t="s">
+      <c r="V5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X5" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S5" s="22" t="s">
+      <c r="Y5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA5" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="11">
+      <c r="D6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="11">
         <v>210</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="11">
+      <c r="K6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="11">
         <v>103</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="N6" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="11">
+      <c r="Q6" s="11">
         <v>2</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="R6" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="11">
+      <c r="T6" s="11">
         <v>2</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="U6" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P6" s="22" t="s">
+      <c r="V6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X6" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S6" s="22" t="s">
+      <c r="Y6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA6" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="11">
         <v>302</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="11">
+      <c r="K7" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="11">
         <v>410</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="M7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="N7" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="Q7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="R7" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="T7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="U7" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P7" s="22" t="s">
+      <c r="V7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X7" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S7" s="22" t="s">
+      <c r="Y7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA7" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D8" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="11">
         <v>405</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="11">
-        <v>210</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="11">
-        <v>210</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>135</v>
+      <c r="K8" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L8" s="11">
         <v>210</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>210</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="T8" s="11">
+        <v>210</v>
+      </c>
+      <c r="U8" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P8" s="22" t="s">
+      <c r="V8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" s="22" t="s">
+      <c r="Y8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA8" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>99</v>
+      <c r="K9" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="U9" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P9" s="22" t="s">
+      <c r="V9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S9" s="22" t="s">
+      <c r="Y9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA9" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="11">
+      <c r="D10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="11">
         <v>310</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="11">
+      <c r="K10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" s="11">
         <v>405</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="M10" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="N10" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="11">
+      <c r="Q10" s="11">
         <v>302</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="R10" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="L10" s="11">
+      <c r="T10" s="11">
         <v>302</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="U10" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="V10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S10" s="22" t="s">
+      <c r="Y10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA10" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="11">
+      <c r="D11" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="11">
         <v>317</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="11">
-        <v>317</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="11">
-        <v>317</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>105</v>
+      <c r="K11" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L11" s="11">
         <v>317</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>317</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="11">
+        <v>317</v>
+      </c>
+      <c r="U11" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P11" s="22" t="s">
+      <c r="V11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" s="22" t="s">
+      <c r="Y11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA11" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="11">
+      <c r="D12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="11">
         <v>103</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" s="11">
         <v>302</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="M12" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="N12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="Q12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" s="22" t="s">
+      <c r="T12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="U12" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" s="22" t="s">
+      <c r="V12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="22" t="s">
+      <c r="Y12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA12" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>106</v>
+      <c r="K13" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U13" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P13" s="22" t="s">
+      <c r="V13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X13" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S13" s="22" t="s">
+      <c r="Y13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA13" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>142</v>
+      <c r="K14" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="U14" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" s="22" t="s">
+      <c r="V14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X14" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S14" s="22" t="s">
+      <c r="Y14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA14" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="11">
         <v>316</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="11">
-        <v>316</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="11">
-        <v>316</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>100</v>
+      <c r="K15" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L15" s="11">
         <v>316</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>316</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="11">
+        <v>316</v>
+      </c>
+      <c r="U15" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P15" s="22" t="s">
+      <c r="V15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X15" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q15" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S15" s="22" t="s">
+      <c r="Y15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA15" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>143</v>
+      <c r="K16" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="U16" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P16" s="22" t="s">
+      <c r="V16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X16" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S16" s="22" t="s">
+      <c r="Y16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA16" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="11">
+      <c r="D17" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="11">
         <v>304</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="K17" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="M17" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="N17" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="Q17" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="R17" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="S17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="U17" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P17" s="22" t="s">
+      <c r="V17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X17" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q17" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S17" s="22" t="s">
+      <c r="Y17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA17" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D18" s="18" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="K18" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="M18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="N18" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="Q18" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="R18" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="S18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="U18" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P18" s="22" t="s">
+      <c r="V18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X18" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S18" s="22" t="s">
+      <c r="Y18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA18" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="11">
         <v>301</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="M19" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="N19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="Q19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="R19" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="S19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="U19" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="22" t="s">
+      <c r="V19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X19" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S19" s="22" t="s">
+      <c r="Y19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA19" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D20" s="18" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="21" t="s">
+      <c r="K20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="N20" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P20" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="11">
+      <c r="Q20" s="11">
         <v>402</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="R20" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="S20" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="L20" s="11">
+      <c r="T20" s="11">
         <v>402</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="U20" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="22" t="s">
+      <c r="V20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X20" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S20" s="22" t="s">
+      <c r="Y20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA20" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D21" s="18" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="K21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="N21" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J21" s="22" t="s">
+      <c r="Q21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="S21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M21" s="22" t="s">
+      <c r="T21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="U21" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="V21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="W21" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="X21" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q21" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S21" s="22" t="s">
+      <c r="Y21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA21" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="K22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="M22" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="N22" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I22" s="11">
+      <c r="Q22" s="11">
         <v>103</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="R22" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="S22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="11">
+      <c r="T22" s="11">
         <v>103</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="U22" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" s="22" t="s">
+      <c r="V22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X22" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S22" s="22" t="s">
+      <c r="Y22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA22" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="21" t="s">
+      <c r="K23" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="N23" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>206</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="R23" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="S23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="L23" s="11">
+      <c r="T23" s="11">
         <v>206</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="U23" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="N23" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="22" t="s">
+      <c r="V23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X23" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q23" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S23" s="22" t="s">
+      <c r="Y23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA23" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="16">
         <v>2</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="N24" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R24" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="U24" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="X24" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S24" s="22" t="s">
+      <c r="AA24" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B25" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="N25" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R25" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="U25" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="X25" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S25" s="22" t="s">
+      <c r="AA25" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B26" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="N26" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R26" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="U26" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P26" s="22" t="s">
+      <c r="X26" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S26" s="22" t="s">
+      <c r="AA26" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B27" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D27" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="N27" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R27" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="U27" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="X27" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S27" s="22" t="s">
+      <c r="AA27" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="B28" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D28" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="N28" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R28" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="U28" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P28" s="22" t="s">
+      <c r="X28" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S28" s="22" t="s">
+      <c r="AA28" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B29" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="N29" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R29" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="U29" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P29" s="22" t="s">
+      <c r="X29" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S29" s="22" t="s">
+      <c r="AA29" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B30" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D30" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="N30" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R30" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="U30" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P30" s="22" t="s">
+      <c r="X30" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S30" s="22" t="s">
+      <c r="AA30" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B31" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="N31" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R31" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M31" s="22" t="s">
+      <c r="U31" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P31" s="22" t="s">
+      <c r="X31" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S31" s="22" t="s">
+      <c r="AA31" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="B32" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="N32" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R32" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="U32" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P32" s="22" t="s">
+      <c r="X32" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S32" s="22" t="s">
+      <c r="AA32" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="B33" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D33" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="N33" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R33" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="U33" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P33" s="22" t="s">
+      <c r="X33" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S33" s="22" t="s">
+      <c r="AA33" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B34" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="N34" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R34" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="U34" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="X34" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S34" s="22" t="s">
+      <c r="AA34" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B35" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="N35" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R35" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="U35" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P35" s="22" t="s">
+      <c r="X35" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S35" s="22" t="s">
+      <c r="AA35" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="B36" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D36" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="19"/>
+      <c r="K36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="N36" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R36" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="U36" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="X36" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S36" s="22" t="s">
+      <c r="AA36" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="B37" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D37" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" s="19"/>
+      <c r="K37" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="N37" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R37" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M37" s="22" t="s">
+      <c r="U37" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P37" s="22" t="s">
+      <c r="X37" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S37" s="22" t="s">
+      <c r="AA37" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B38" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="19"/>
+      <c r="K38" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="N38" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R38" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M38" s="22" t="s">
+      <c r="U38" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P38" s="22" t="s">
+      <c r="X38" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S38" s="22" t="s">
+      <c r="AA38" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B39" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J39" s="22" t="s">
+      <c r="N39" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R39" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="U39" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P39" s="22" t="s">
+      <c r="X39" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S39" s="22" t="s">
+      <c r="AA39" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B40" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="N40" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R40" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="U40" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P40" s="22" t="s">
+      <c r="X40" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S40" s="22" t="s">
+      <c r="AA40" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B41" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" s="19"/>
+      <c r="K41" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="N41" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R41" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M41" s="22" t="s">
+      <c r="U41" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P41" s="22" t="s">
+      <c r="X41" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S41" s="22" t="s">
+      <c r="AA41" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B42" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D42" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J42" s="19"/>
+      <c r="K42" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="N42" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R42" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M42" s="22" t="s">
+      <c r="U42" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P42" s="22" t="s">
+      <c r="X42" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S42" s="22" t="s">
+      <c r="AA42" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B43" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="N43" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R43" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M43" s="22" t="s">
+      <c r="U43" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P43" s="22" t="s">
+      <c r="X43" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S43" s="22" t="s">
+      <c r="AA43" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B44" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="N44" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R44" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M44" s="22" t="s">
+      <c r="U44" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P44" s="22" t="s">
+      <c r="X44" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S44" s="22" t="s">
+      <c r="AA44" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="B45" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J45" s="19"/>
+      <c r="K45" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J45" s="22" t="s">
+      <c r="N45" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R45" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M45" s="22" t="s">
+      <c r="U45" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P45" s="22" t="s">
+      <c r="X45" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S45" s="22" t="s">
+      <c r="AA45" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="16">
         <v>3</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J46" s="19"/>
+      <c r="K46" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="N46" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R46" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M46" s="22" t="s">
+      <c r="U46" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P46" s="22" t="s">
+      <c r="X46" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S46" s="22" t="s">
+      <c r="AA46" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B47" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="N47" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R47" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M47" s="22" t="s">
+      <c r="U47" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P47" s="22" t="s">
+      <c r="X47" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S47" s="22" t="s">
+      <c r="AA47" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B48" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D48" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J48" s="22" t="s">
+      <c r="N48" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R48" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M48" s="22" t="s">
+      <c r="U48" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P48" s="22" t="s">
+      <c r="X48" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S48" s="22" t="s">
+      <c r="AA48" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B49" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D49" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="N49" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R49" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M49" s="22" t="s">
+      <c r="U49" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P49" s="22" t="s">
+      <c r="X49" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S49" s="22" t="s">
+      <c r="AA49" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B50" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D50" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L50" s="11"/>
+      <c r="M50" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="N50" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R50" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M50" s="22" t="s">
+      <c r="U50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P50" s="22" t="s">
+      <c r="X50" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S50" s="22" t="s">
+      <c r="AA50" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B51" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D51" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J51" s="19"/>
+      <c r="K51" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="22" t="s">
+      <c r="N51" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R51" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M51" s="22" t="s">
+      <c r="U51" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P51" s="22" t="s">
+      <c r="X51" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S51" s="22" t="s">
+      <c r="AA51" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B52" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D52" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="19"/>
+      <c r="K52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="N52" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R52" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M52" s="22" t="s">
+      <c r="U52" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P52" s="22" t="s">
+      <c r="X52" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S52" s="22" t="s">
+      <c r="AA52" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="19"/>
+      <c r="K53" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="22" t="s">
+      <c r="N53" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R53" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M53" s="22" t="s">
+      <c r="U53" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P53" s="22" t="s">
+      <c r="X53" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S53" s="22" t="s">
+      <c r="AA53" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B54" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D54" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J54" s="19"/>
+      <c r="K54" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="N54" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R54" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="22" t="s">
+      <c r="U54" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P54" s="22" t="s">
+      <c r="X54" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S54" s="22" t="s">
+      <c r="AA54" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B55" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D55" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L55" s="11"/>
+      <c r="M55" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J55" s="22" t="s">
+      <c r="N55" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R55" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M55" s="22" t="s">
+      <c r="U55" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P55" s="22" t="s">
+      <c r="X55" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S55" s="22" t="s">
+      <c r="AA55" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B56" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D56" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="N56" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R56" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M56" s="22" t="s">
+      <c r="U56" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P56" s="22" t="s">
+      <c r="X56" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S56" s="22" t="s">
+      <c r="AA56" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B57" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D57" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J57" s="19"/>
+      <c r="K57" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L57" s="11"/>
+      <c r="M57" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="N57" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R57" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M57" s="22" t="s">
+      <c r="U57" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P57" s="22" t="s">
+      <c r="X57" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S57" s="22" t="s">
+      <c r="AA57" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B58" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D58" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J58" s="19"/>
+      <c r="K58" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L58" s="11"/>
+      <c r="M58" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="N58" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R58" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M58" s="22" t="s">
+      <c r="U58" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P58" s="22" t="s">
+      <c r="X58" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S58" s="22" t="s">
+      <c r="AA58" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B59" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D59" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" s="19"/>
+      <c r="K59" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L59" s="11"/>
+      <c r="M59" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J59" s="22" t="s">
+      <c r="N59" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R59" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M59" s="22" t="s">
+      <c r="U59" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P59" s="22" t="s">
+      <c r="X59" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S59" s="22" t="s">
+      <c r="AA59" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="B60" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D60" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" s="19"/>
+      <c r="K60" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L60" s="11"/>
+      <c r="M60" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="N60" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R60" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M60" s="22" t="s">
+      <c r="U60" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P60" s="22" t="s">
+      <c r="X60" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S60" s="22" t="s">
+      <c r="AA60" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B61" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D61" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" s="19"/>
+      <c r="K61" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L61" s="11"/>
+      <c r="M61" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="N61" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R61" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M61" s="22" t="s">
+      <c r="U61" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P61" s="22" t="s">
+      <c r="X61" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S61" s="22" t="s">
+      <c r="AA61" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B62" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D62" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J62" s="19"/>
+      <c r="K62" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="N62" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R62" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M62" s="22" t="s">
+      <c r="U62" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P62" s="22" t="s">
+      <c r="X62" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S62" s="22" t="s">
+      <c r="AA62" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B63" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D63" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J63" s="19"/>
+      <c r="K63" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="N63" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R63" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M63" s="22" t="s">
+      <c r="U63" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P63" s="22" t="s">
+      <c r="X63" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S63" s="22" t="s">
+      <c r="AA63" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B64" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D64" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" s="19"/>
+      <c r="K64" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="N64" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R64" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M64" s="22" t="s">
+      <c r="U64" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P64" s="22" t="s">
+      <c r="X64" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S64" s="22" t="s">
+      <c r="AA64" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B65" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D65" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J65" s="19"/>
+      <c r="K65" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J65" s="22" t="s">
+      <c r="N65" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R65" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M65" s="22" t="s">
+      <c r="U65" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P65" s="22" t="s">
+      <c r="X65" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S65" s="22" t="s">
+      <c r="AA65" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>98</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J66" s="19"/>
+      <c r="K66" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J66" s="22" t="s">
+      <c r="N66" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R66" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M66" s="22" t="s">
+      <c r="U66" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P66" s="22" t="s">
+      <c r="X66" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S66" s="22" t="s">
+      <c r="AA66" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B67" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D67" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" s="19"/>
+      <c r="K67" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L67" s="11"/>
+      <c r="M67" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J67" s="22" t="s">
+      <c r="N67" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R67" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M67" s="22" t="s">
+      <c r="U67" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P67" s="22" t="s">
+      <c r="X67" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S67" s="22" t="s">
+      <c r="AA67" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B68" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D68" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J68" s="19"/>
+      <c r="K68" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="N68" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R68" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M68" s="22" t="s">
+      <c r="U68" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P68" s="22" t="s">
+      <c r="X68" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S68" s="22" t="s">
+      <c r="AA68" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B69" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D69" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J69" s="19"/>
+      <c r="K69" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L69" s="11"/>
+      <c r="M69" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J69" s="22" t="s">
+      <c r="N69" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O69" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R69" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M69" s="22" t="s">
+      <c r="U69" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P69" s="22" t="s">
+      <c r="X69" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S69" s="22" t="s">
+      <c r="AA69" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B70" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D70" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J70" s="19"/>
+      <c r="K70" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L70" s="11"/>
+      <c r="M70" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J70" s="22" t="s">
+      <c r="N70" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O70" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R70" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M70" s="22" t="s">
+      <c r="U70" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="B71" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D71" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J71" s="19"/>
+      <c r="K71" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J71" s="22" t="s">
+      <c r="N71" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R71" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M71" s="22" t="s">
+      <c r="U71" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P71" s="22" t="s">
+      <c r="X71" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S71" s="22" t="s">
+      <c r="AA71" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B72" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D72" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J72" s="19"/>
+      <c r="K72" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L72" s="11"/>
+      <c r="M72" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J72" s="22" t="s">
+      <c r="N72" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R72" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M72" s="22" t="s">
+      <c r="U72" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P72" s="22" t="s">
+      <c r="X72" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S72" s="22" t="s">
+      <c r="AA72" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B73" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D73" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J73" s="19"/>
+      <c r="K73" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J73" s="22" t="s">
+      <c r="N73" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R73" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M73" s="22" t="s">
+      <c r="U73" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P73" s="22" t="s">
+      <c r="X73" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S73" s="22" t="s">
+      <c r="AA73" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="B74" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D74" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J74" s="19"/>
+      <c r="K74" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="N74" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R74" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M74" s="22" t="s">
+      <c r="U74" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P74" s="22" t="s">
+      <c r="X74" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S74" s="22" t="s">
+      <c r="AA74" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="B75" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D75" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J75" s="19"/>
+      <c r="K75" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J75" s="22" t="s">
+      <c r="N75" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R75" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M75" s="22" t="s">
+      <c r="U75" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P75" s="22" t="s">
+      <c r="X75" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S75" s="22" t="s">
+      <c r="AA75" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="B76" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D76" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J76" s="19"/>
+      <c r="K76" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L76" s="11"/>
+      <c r="M76" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="N76" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R76" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M76" s="22" t="s">
+      <c r="U76" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P76" s="22" t="s">
+      <c r="X76" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S76" s="22" t="s">
+      <c r="AA76" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B77" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D77" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J77" s="19"/>
+      <c r="K77" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L77" s="11"/>
+      <c r="M77" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J77" s="22" t="s">
+      <c r="N77" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R77" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M77" s="22" t="s">
+      <c r="U77" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P77" s="22" t="s">
+      <c r="X77" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S77" s="22" t="s">
+      <c r="AA77" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="B78" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D78" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J78" s="19"/>
+      <c r="K78" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L78" s="11"/>
+      <c r="M78" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J78" s="22" t="s">
+      <c r="N78" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R78" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M78" s="22" t="s">
+      <c r="U78" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="17"/>
       <c r="D79" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="G79" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J79" s="12"/>
+      <c r="K79" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L79" s="11"/>
+      <c r="M79" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="22" t="s">
+      <c r="N79" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M79" s="22" t="s">
+      <c r="U79" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P79" s="22" t="s">
+      <c r="X79" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S79" s="22" t="s">
+      <c r="AA79" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="16">
         <v>5</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J80" s="19"/>
+      <c r="K80" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L80" s="11"/>
+      <c r="M80" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J80" s="22" t="s">
+      <c r="N80" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O80" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R80" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M80" s="22" t="s">
+      <c r="U80" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P80" s="22" t="s">
+      <c r="X80" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="AA80" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="B81" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D81" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J81" s="19"/>
+      <c r="K81" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L81" s="11"/>
+      <c r="M81" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J81" s="22" t="s">
+      <c r="N81" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R81" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="M81" s="22" t="s">
+      <c r="U81" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="P81" s="22" t="s">
+      <c r="X81" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S81" s="22" t="s">
+      <c r="AA81" s="22" t="s">
         <v>152</v>
       </c>
     </row>
